--- a/Aplikasi Skripsi/Data Predict/DataPredict Ganjar.xlsx
+++ b/Aplikasi Skripsi/Data Predict/DataPredict Ganjar.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507422B-FECA-42AF-A734-7DF200D076A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C4AA9D-6131-457B-99F1-0A9832E5F758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7406" uniqueCount="3012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7403" uniqueCount="3012">
   <si>
     <t>Bulan</t>
   </si>
@@ -12138,11 +12149,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3706"/>
+  <dimension ref="A1:D3701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3693" workbookViewId="0">
-      <selection activeCell="A3703" sqref="A3703:D3706"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A3701" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12165,7 +12174,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -12179,7 +12188,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -12473,7 +12482,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -12697,7 +12706,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -12851,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -14083,7 +14092,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="s">
         <v>141</v>
@@ -14097,7 +14106,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="s">
         <v>142</v>
@@ -14377,7 +14386,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="s">
         <v>162</v>
@@ -14643,7 +14652,7 @@
         <v>3</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="s">
         <v>181</v>
@@ -14951,7 +14960,7 @@
         <v>3</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201" t="s">
         <v>203</v>
@@ -16211,7 +16220,7 @@
         <v>3</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291" t="s">
         <v>293</v>
@@ -16365,7 +16374,7 @@
         <v>3</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" t="s">
         <v>304</v>
@@ -16393,7 +16402,7 @@
         <v>3</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D304" t="s">
         <v>306</v>
@@ -16827,7 +16836,7 @@
         <v>3</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D335" t="s">
         <v>337</v>
@@ -20915,7 +20924,7 @@
         <v>3</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D627" t="s">
         <v>629</v>
@@ -21489,7 +21498,7 @@
         <v>3</v>
       </c>
       <c r="C668">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D668" t="s">
         <v>670</v>
@@ -21559,7 +21568,7 @@
         <v>3</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D673" t="s">
         <v>675</v>
@@ -21657,7 +21666,7 @@
         <v>3</v>
       </c>
       <c r="C680">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D680" t="s">
         <v>682</v>
@@ -22063,7 +22072,7 @@
         <v>3</v>
       </c>
       <c r="C709">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D709" t="s">
         <v>711</v>
@@ -23939,7 +23948,7 @@
         <v>3</v>
       </c>
       <c r="C843">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D843" t="s">
         <v>845</v>
@@ -25493,7 +25502,7 @@
         <v>3</v>
       </c>
       <c r="C954">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D954" t="s">
         <v>956</v>
@@ -25577,7 +25586,7 @@
         <v>3</v>
       </c>
       <c r="C960">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D960" t="s">
         <v>962</v>
@@ -26655,7 +26664,7 @@
         <v>1013</v>
       </c>
       <c r="C1037">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1037" t="s">
         <v>1040</v>
@@ -27159,7 +27168,7 @@
         <v>1013</v>
       </c>
       <c r="C1073">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1073" t="s">
         <v>1076</v>
@@ -27201,7 +27210,7 @@
         <v>1013</v>
       </c>
       <c r="C1076">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1076" t="s">
         <v>1079</v>
@@ -27355,7 +27364,7 @@
         <v>1013</v>
       </c>
       <c r="C1087">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1087" t="s">
         <v>1090</v>
@@ -27397,7 +27406,7 @@
         <v>1013</v>
       </c>
       <c r="C1090">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1090" t="s">
         <v>1093</v>
@@ -28279,7 +28288,7 @@
         <v>1013</v>
       </c>
       <c r="C1153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1153" t="s">
         <v>1156</v>
@@ -28461,7 +28470,7 @@
         <v>1013</v>
       </c>
       <c r="C1166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1166" t="s">
         <v>1169</v>
@@ -28475,7 +28484,7 @@
         <v>1013</v>
       </c>
       <c r="C1167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1167" t="s">
         <v>1170</v>
@@ -29609,7 +29618,7 @@
         <v>1013</v>
       </c>
       <c r="C1248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1248" t="s">
         <v>1251</v>
@@ -30127,7 +30136,7 @@
         <v>1013</v>
       </c>
       <c r="C1285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1285" t="s">
         <v>1288</v>
@@ -32927,7 +32936,7 @@
         <v>1013</v>
       </c>
       <c r="C1485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1485" t="s">
         <v>1483</v>
@@ -33865,7 +33874,7 @@
         <v>1013</v>
       </c>
       <c r="C1552">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1552" t="s">
         <v>1550</v>
@@ -35909,7 +35918,7 @@
         <v>1013</v>
       </c>
       <c r="C1698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1698" t="s">
         <v>1694</v>
@@ -37239,7 +37248,7 @@
         <v>1013</v>
       </c>
       <c r="C1793">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1793" t="s">
         <v>1786</v>
@@ -37253,7 +37262,7 @@
         <v>1013</v>
       </c>
       <c r="C1794">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1794" t="s">
         <v>1787</v>
@@ -38947,7 +38956,7 @@
         <v>1013</v>
       </c>
       <c r="C1915">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1915" t="s">
         <v>1906</v>
@@ -39563,7 +39572,7 @@
         <v>1013</v>
       </c>
       <c r="C1959">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1959" t="s">
         <v>1950</v>
@@ -42195,7 +42204,7 @@
         <v>1013</v>
       </c>
       <c r="C2147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2147" t="s">
         <v>2133</v>
@@ -42209,7 +42218,7 @@
         <v>1013</v>
       </c>
       <c r="C2148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2148" t="s">
         <v>2134</v>
@@ -42573,7 +42582,7 @@
         <v>1013</v>
       </c>
       <c r="C2174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2174" t="s">
         <v>2160</v>
@@ -42965,7 +42974,7 @@
         <v>2187</v>
       </c>
       <c r="C2202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2202" t="s">
         <v>2188</v>
@@ -43049,7 +43058,7 @@
         <v>2187</v>
       </c>
       <c r="C2208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2208" t="s">
         <v>2194</v>
@@ -43259,7 +43268,7 @@
         <v>2187</v>
       </c>
       <c r="C2223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2223" t="s">
         <v>2209</v>
@@ -43329,7 +43338,7 @@
         <v>2187</v>
       </c>
       <c r="C2228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2228" t="s">
         <v>2214</v>
@@ -43441,7 +43450,7 @@
         <v>2187</v>
       </c>
       <c r="C2236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2236" t="s">
         <v>2222</v>
@@ -43623,7 +43632,7 @@
         <v>2187</v>
       </c>
       <c r="C2249">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2249" t="s">
         <v>2235</v>
@@ -43679,7 +43688,7 @@
         <v>2187</v>
       </c>
       <c r="C2253">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2253" t="s">
         <v>2239</v>
@@ -43763,7 +43772,7 @@
         <v>2187</v>
       </c>
       <c r="C2259">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2259" t="s">
         <v>2245</v>
@@ -43959,7 +43968,7 @@
         <v>2187</v>
       </c>
       <c r="C2273">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2273" t="s">
         <v>2259</v>
@@ -44197,7 +44206,7 @@
         <v>2187</v>
       </c>
       <c r="C2290">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2290" t="s">
         <v>2276</v>
@@ -44253,7 +44262,7 @@
         <v>2187</v>
       </c>
       <c r="C2294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2294" t="s">
         <v>2280</v>
@@ -44365,7 +44374,7 @@
         <v>2187</v>
       </c>
       <c r="C2302">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2302" t="s">
         <v>2288</v>
@@ -44435,7 +44444,7 @@
         <v>2187</v>
       </c>
       <c r="C2307">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2307" t="s">
         <v>2293</v>
@@ -44449,7 +44458,7 @@
         <v>2187</v>
       </c>
       <c r="C2308">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2308" t="s">
         <v>2294</v>
@@ -44477,7 +44486,7 @@
         <v>2187</v>
       </c>
       <c r="C2310">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2310" t="s">
         <v>2296</v>
@@ -44911,7 +44920,7 @@
         <v>2187</v>
       </c>
       <c r="C2341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2341" t="s">
         <v>2326</v>
@@ -45793,7 +45802,7 @@
         <v>2187</v>
       </c>
       <c r="C2404">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2404" t="s">
         <v>2389</v>
@@ -45905,7 +45914,7 @@
         <v>2187</v>
       </c>
       <c r="C2412">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2412" t="s">
         <v>2397</v>
@@ -45947,7 +45956,7 @@
         <v>2187</v>
       </c>
       <c r="C2415">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2415" t="s">
         <v>2400</v>
@@ -46017,7 +46026,7 @@
         <v>2187</v>
       </c>
       <c r="C2420">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2420" t="s">
         <v>2405</v>
@@ -49937,7 +49946,7 @@
         <v>2187</v>
       </c>
       <c r="C2700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2700" t="s">
         <v>2685</v>
@@ -50035,7 +50044,7 @@
         <v>2187</v>
       </c>
       <c r="C2707">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2707" t="s">
         <v>2692</v>
@@ -50679,7 +50688,7 @@
         <v>2187</v>
       </c>
       <c r="C2753">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2753" t="s">
         <v>2738</v>
@@ -57945,7 +57954,7 @@
         <v>2187</v>
       </c>
       <c r="C3272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3272" t="s">
         <v>962</v>
@@ -59303,7 +59312,7 @@
         <v>2187</v>
       </c>
       <c r="C3369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3369" t="s">
         <v>1076</v>
@@ -59345,7 +59354,7 @@
         <v>2187</v>
       </c>
       <c r="C3372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3372" t="s">
         <v>1079</v>
@@ -63955,68 +63964,6 @@
       </c>
       <c r="D3701" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="3703" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3703">
-        <v>1</v>
-      </c>
-      <c r="C3703">
-        <v>0</v>
-      </c>
-      <c r="D3703">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3704" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3704" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3704">
-        <f>COUNTIFS($B$2:$B$3701,$A3704,$C$2:$C$3701,B$3703)</f>
-        <v>920</v>
-      </c>
-      <c r="C3704">
-        <f t="shared" ref="C3704:D3706" si="0">COUNTIFS($B$2:$B$3701,$A3704,$C$2:$C$3701,C$3703)</f>
-        <v>70</v>
-      </c>
-      <c r="D3704">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3705" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3705" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B3705">
-        <f t="shared" ref="B3705:B3706" si="1">COUNTIFS($B$2:$B$3701,$A3705,$C$2:$C$3701,B$3703)</f>
-        <v>1109</v>
-      </c>
-      <c r="C3705">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D3705">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3706" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3706" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B3706">
-        <f t="shared" si="1"/>
-        <v>1388</v>
-      </c>
-      <c r="C3706">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D3706">
-        <f t="shared" si="0"/>
-        <v>61</v>
       </c>
     </row>
   </sheetData>
